--- a/data/trans_dic/P37A$medicoedad-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoedad-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07613722740448368</v>
+        <v>0.07522743084369861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05472805014365793</v>
+        <v>0.05488302606441699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06838533285104677</v>
+        <v>0.06876859096320112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0667425238017135</v>
+        <v>0.06489838388723768</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09999571859625496</v>
+        <v>0.1013510304981725</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08054300062196257</v>
+        <v>0.08102921985157542</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0887597001401884</v>
+        <v>0.08764832026913764</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1408776696455918</v>
+        <v>0.1394716494977573</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09669969563745134</v>
+        <v>0.09764229724597273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07221675160110187</v>
+        <v>0.07300656760724876</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08257174064595656</v>
+        <v>0.08332683533231497</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1117699400652263</v>
+        <v>0.112643309316878</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1229792672183402</v>
+        <v>0.1202462076092265</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08824659950762384</v>
+        <v>0.08692704860447772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1017191327898799</v>
+        <v>0.1004463909641582</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1119309623136308</v>
+        <v>0.1108533497819789</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1458291408409306</v>
+        <v>0.1454285498103609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1193721554775656</v>
+        <v>0.1195921028657577</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.12702535495059</v>
+        <v>0.1259897837244196</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1844518436803292</v>
+        <v>0.1855249775909506</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1288787408218352</v>
+        <v>0.1296461123567423</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0962284339174891</v>
+        <v>0.09648736177236143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1084257034117654</v>
+        <v>0.1077716137736912</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1429850075258466</v>
+        <v>0.146129210626061</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04834104773629013</v>
+        <v>0.04863127767429907</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07840915336440704</v>
+        <v>0.07827779447668486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07304715635913839</v>
+        <v>0.07414251125833368</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1207646783293797</v>
+        <v>0.1211752014893475</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08687839462016828</v>
+        <v>0.08781866501214579</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08510395470819337</v>
+        <v>0.08442543277744874</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1016500108635886</v>
+        <v>0.1003996616486315</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1614003833221587</v>
+        <v>0.1611022686351528</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07107592759713624</v>
+        <v>0.07113574265896616</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08742513807732395</v>
+        <v>0.08643108488961873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09347744369795458</v>
+        <v>0.09326809265696405</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1475255312443689</v>
+        <v>0.1485888736487676</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07636271098254477</v>
+        <v>0.07650184019186339</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1179296721411115</v>
+        <v>0.1177174314473952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1095257732323604</v>
+        <v>0.1108788084715388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1607251678162988</v>
+        <v>0.1611229421898516</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1254545783137864</v>
+        <v>0.1236262617842213</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1215271076674192</v>
+        <v>0.1240201297637341</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1469568387871069</v>
+        <v>0.1435597941475397</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1976751767264795</v>
+        <v>0.1973367489506164</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09509052078905812</v>
+        <v>0.09527970579986469</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1147785833293844</v>
+        <v>0.1146330055590884</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1238848081991683</v>
+        <v>0.1235934444730723</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1740286790465853</v>
+        <v>0.1748177177625285</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03605255883529045</v>
+        <v>0.03637010238723883</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08877424646974198</v>
+        <v>0.08910143284632917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07742412160715333</v>
+        <v>0.07694817281782695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1090116859873698</v>
+        <v>0.1080275304958146</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0617287500754345</v>
+        <v>0.06115637601732324</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09689015555128376</v>
+        <v>0.09665097586985863</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06989383819922788</v>
+        <v>0.07123778292248453</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1354783915396375</v>
+        <v>0.1349025041812394</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05243128538660723</v>
+        <v>0.05202384219764791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09937413696592232</v>
+        <v>0.09994473179791177</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07782959470036731</v>
+        <v>0.08022916233771175</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1263073376684089</v>
+        <v>0.1250989683114969</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06131011432676219</v>
+        <v>0.0617123234352342</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1326701148461228</v>
+        <v>0.1345479869368531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.117214379275056</v>
+        <v>0.1171634439569655</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1455812754968237</v>
+        <v>0.1447692401585167</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09650783720394959</v>
+        <v>0.09526262792371182</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1397170153134133</v>
+        <v>0.1425672114765693</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1175152839815496</v>
+        <v>0.1161996356656769</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1688589574772079</v>
+        <v>0.1676392245405661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0737857519380095</v>
+        <v>0.07340684326039645</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1308782404327546</v>
+        <v>0.1316480387289761</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1080917243292222</v>
+        <v>0.1105182340357612</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1512127365056022</v>
+        <v>0.1494418824166018</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03471684201918828</v>
+        <v>0.03534524208202997</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06604649404024296</v>
+        <v>0.06611467095537958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07228497663600157</v>
+        <v>0.07390950557196201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1348617546510157</v>
+        <v>0.1337544388668124</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04009443769451575</v>
+        <v>0.04249933419160375</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06642761095567175</v>
+        <v>0.06947332175417534</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07859397845136408</v>
+        <v>0.07725505068161996</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1357727011239677</v>
+        <v>0.1353440234281186</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04174521651475112</v>
+        <v>0.04285046051391118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07202163357666319</v>
+        <v>0.07230877630080136</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07960927758469062</v>
+        <v>0.08219872393472269</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1403166103811972</v>
+        <v>0.1412112594063812</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07797549587532455</v>
+        <v>0.07723381779752683</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1221139342204793</v>
+        <v>0.121574888638309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1286043560738264</v>
+        <v>0.1251813887435166</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.177130452036913</v>
+        <v>0.1763955244209299</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09303721567094657</v>
+        <v>0.09364200572509537</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1253733538208646</v>
+        <v>0.122819191455874</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1384090606271514</v>
+        <v>0.139672598983136</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1740975889049882</v>
+        <v>0.1736421035889334</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07486924303719671</v>
+        <v>0.07604815174597523</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1124380361737875</v>
+        <v>0.1101998326029581</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1202900139991066</v>
+        <v>0.1230689544881231</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1684402673629695</v>
+        <v>0.1696417074931955</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05366208938187393</v>
+        <v>0.05466140275186162</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08120031909948677</v>
+        <v>0.08058978405429333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08104702556790701</v>
+        <v>0.08057784086414697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1209563471610901</v>
+        <v>0.1220211542360832</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08656580187137025</v>
+        <v>0.08685534496285852</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09320941089492513</v>
+        <v>0.0938263464817807</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09714533920105996</v>
+        <v>0.09587180780151365</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.151688537402575</v>
+        <v>0.1534313006421368</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07272152177889098</v>
+        <v>0.07294880997447421</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09061062335615327</v>
+        <v>0.09059198615141566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09182769515295049</v>
+        <v>0.09189010615557863</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1405210500191202</v>
+        <v>0.1406190736141403</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07025291827020982</v>
+        <v>0.07144337700604797</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1015155930414564</v>
+        <v>0.1010807466259732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1005640585175495</v>
+        <v>0.1005800425548834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1420777427042064</v>
+        <v>0.1428154777231872</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1068686386236083</v>
+        <v>0.1081775038369696</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1144035058637478</v>
+        <v>0.1152147732388922</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1194255695685847</v>
+        <v>0.1192652684454872</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1708876058114191</v>
+        <v>0.1714935262994235</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08681791468873001</v>
+        <v>0.08633759995655198</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1047800621496368</v>
+        <v>0.1048042511212326</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1068754206348545</v>
+        <v>0.1063391161853337</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.15524348295213</v>
+        <v>0.1549062481817419</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44475</v>
+        <v>43943</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57133</v>
+        <v>57294</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>77138</v>
+        <v>77571</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33287</v>
+        <v>32367</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>92229</v>
+        <v>93479</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90202</v>
+        <v>90747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>111798</v>
+        <v>110398</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>87848</v>
+        <v>86972</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>145676</v>
+        <v>147096</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>156267</v>
+        <v>157976</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>197145</v>
+        <v>198948</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>125442</v>
+        <v>126422</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>71837</v>
+        <v>70241</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>92124</v>
+        <v>90746</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>114739</v>
+        <v>113303</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>55824</v>
+        <v>55287</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>134503</v>
+        <v>134134</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>133688</v>
+        <v>133935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>159996</v>
+        <v>158692</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>115020</v>
+        <v>115690</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>194152</v>
+        <v>195308</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>208225</v>
+        <v>208785</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>258873</v>
+        <v>257311</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>160475</v>
+        <v>164004</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52107</v>
+        <v>52419</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>76611</v>
+        <v>76483</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>66387</v>
+        <v>67383</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>115951</v>
+        <v>116345</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>91877</v>
+        <v>92872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>93126</v>
+        <v>92384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>102308</v>
+        <v>101050</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>180098</v>
+        <v>179766</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>151778</v>
+        <v>151906</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>181087</v>
+        <v>179028</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>179037</v>
+        <v>178636</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>306261</v>
+        <v>308468</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>82311</v>
+        <v>82461</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>115226</v>
+        <v>115019</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>99540</v>
+        <v>100769</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>154318</v>
+        <v>154700</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>132673</v>
+        <v>130739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>132982</v>
+        <v>135711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>147908</v>
+        <v>144489</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>220576</v>
+        <v>220198</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>203059</v>
+        <v>203463</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>237745</v>
+        <v>237443</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>237277</v>
+        <v>236719</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>361281</v>
+        <v>362919</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40436</v>
+        <v>40792</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>78575</v>
+        <v>78865</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63779</v>
+        <v>63387</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>114078</v>
+        <v>113049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>61355</v>
+        <v>60786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>84856</v>
+        <v>84647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>53892</v>
+        <v>54929</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>141933</v>
+        <v>141330</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>110920</v>
+        <v>110058</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>174989</v>
+        <v>175994</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>124124</v>
+        <v>127951</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>264503</v>
+        <v>261972</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>68765</v>
+        <v>69216</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>117428</v>
+        <v>119090</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>96556</v>
+        <v>96514</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>152348</v>
+        <v>151498</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>95923</v>
+        <v>94685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>122364</v>
+        <v>124860</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>90611</v>
+        <v>89597</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>176904</v>
+        <v>175626</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>156096</v>
+        <v>155295</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>230465</v>
+        <v>231820</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>172387</v>
+        <v>176256</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>316658</v>
+        <v>312949</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15525</v>
+        <v>15806</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>33223</v>
+        <v>33257</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36627</v>
+        <v>37450</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>131615</v>
+        <v>130535</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13679</v>
+        <v>14499</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30074</v>
+        <v>31453</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38487</v>
+        <v>37832</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>123600</v>
+        <v>123210</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>32910</v>
+        <v>33782</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>68835</v>
+        <v>69110</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>79323</v>
+        <v>81903</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>264676</v>
+        <v>266363</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34871</v>
+        <v>34539</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>61426</v>
+        <v>61155</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65164</v>
+        <v>63430</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>172867</v>
+        <v>172150</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31740</v>
+        <v>31947</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>56761</v>
+        <v>55605</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>67779</v>
+        <v>68397</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>158489</v>
+        <v>158074</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>59024</v>
+        <v>59953</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>107464</v>
+        <v>105324</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>119857</v>
+        <v>122626</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>317724</v>
+        <v>319991</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>173373</v>
+        <v>176602</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>276824</v>
+        <v>274742</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>272908</v>
+        <v>271328</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>421083</v>
+        <v>424790</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>286963</v>
+        <v>287923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>330215</v>
+        <v>332401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>342611</v>
+        <v>338120</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>560856</v>
+        <v>567299</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>476020</v>
+        <v>477508</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>629913</v>
+        <v>629783</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>633067</v>
+        <v>633497</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1008759</v>
+        <v>1009462</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>226975</v>
+        <v>230821</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>346081</v>
+        <v>344599</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>338628</v>
+        <v>338681</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>494613</v>
+        <v>497181</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>354266</v>
+        <v>358605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>405300</v>
+        <v>408174</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>421189</v>
+        <v>420624</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>631843</v>
+        <v>634083</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>568293</v>
+        <v>565148</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>728417</v>
+        <v>728585</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>736807</v>
+        <v>733110</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1114447</v>
+        <v>1112026</v>
       </c>
     </row>
     <row r="24">
